--- a/com.myntrajio/src/test/resources/Data/Empdetails.xlsx
+++ b/com.myntrajio/src/test/resources/Data/Empdetails.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Kumar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Kumar\git\repository\com.myntrajio\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E180B69-3AE5-4208-B1B4-E6AF55D92F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E4D8B-7635-4977-950A-B3987439F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" xr2:uid="{78E78E72-9313-4BBF-B3F0-9961DA2A3E04}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{78E78E72-9313-4BBF-B3F0-9961DA2A3E04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regiserdetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Registerdetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>MobileNumber</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>User1</t>
   </si>
   <si>
@@ -117,7 +114,25 @@
     <t>He will gide the team to devlop ,test Appalaciton</t>
   </si>
   <si>
-    <t>He Will Tech Support</t>
+    <t>8096883516</t>
+  </si>
+  <si>
+    <t>8096883517</t>
+  </si>
+  <si>
+    <t>8096883518</t>
+  </si>
+  <si>
+    <t>8096883515</t>
+  </si>
+  <si>
+    <t>8096883512</t>
+  </si>
+  <si>
+    <t>He Will Tech Support the Team technically</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -174,10 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +511,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,110 +537,110 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>8096883516</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>8096883517</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>8096883518</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>8096883515</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>8096883512</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
